--- a/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testInput.xlsx
+++ b/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53260B86-DC21-8141-B025-79C94431C890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9DA8E0-2212-5747-BBC6-BEE2391A8573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="1280" windowWidth="38960" windowHeight="22380" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D299942-CAD7-8B42-80C6-6BA1FC3BDCD5}">
   <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,112 +1404,112 @@
         <v>29</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="N8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="P8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="Q8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="R8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="S8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="T8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="U8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="V8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="W8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="X8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="Y8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="Z8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AA8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AB8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AC8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AD8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AE8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AF8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AG8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AH8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AI8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AJ8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AK8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">

--- a/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testInput.xlsx
+++ b/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18ModellingProgramming/pyWitness/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9DA8E0-2212-5747-BBC6-BEE2391A8573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3300854-A667-624D-A159-65E2CE79FF2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="1280" windowWidth="38960" windowHeight="22380" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="60">
   <si>
     <t>Data translator</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>condition 6</t>
+  </si>
+  <si>
+    <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D299942-CAD7-8B42-80C6-6BA1FC3BDCD5}">
-  <dimension ref="A1:AK43"/>
+  <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:AK8"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,10 +611,14 @@
     <col min="27" max="31" width="16.83203125" style="1" customWidth="1"/>
     <col min="32" max="32" width="19.5" style="1" customWidth="1"/>
     <col min="33" max="37" width="16.83203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="1"/>
+    <col min="38" max="38" width="19.5" style="1" customWidth="1"/>
+    <col min="39" max="43" width="16.83203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="19.5" style="1" customWidth="1"/>
+    <col min="45" max="49" width="16.83203125" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +730,44 @@
       <c r="AK1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -833,8 +879,44 @@
       <c r="AK2" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -946,8 +1028,44 @@
       <c r="AK3" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1177,44 @@
       <c r="AK4" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1172,8 +1326,44 @@
       <c r="AK5" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1285,8 +1475,44 @@
       <c r="AK6" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1398,8 +1624,44 @@
       <c r="AK7" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1511,43 +1773,79 @@
       <c r="AK8" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
